--- a/AllPltsUrl.xlsx
+++ b/AllPltsUrl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cutting Machine\Project\FileChecker_Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Project\FileChecker_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{376F86D1-E8AF-4710-84E3-D33225818294}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3987453F-FD0E-435A-B9AF-05DED9E478BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="6120" yWindow="4476" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="无标题" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6616" uniqueCount="6613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6615" uniqueCount="6612">
   <si>
     <t>https://static.vr186.com/public/upload/material/plt/mobilephonefilm/360/n7/backfilm/360n7背膜1207.plt</t>
   </si>
@@ -12389,9 +12389,6 @@
   </si>
   <si>
     <t>https://static.vr186.com/public/upload/material/plt/mobilephonefilm/amazon/amazonkindlegen8_2016/(myanmar-a4)/backfilm/amazonkindlegen8_2016背膜1.7.plt</t>
-  </si>
-  <si>
-    <t>https://static.vr186.com/public/upload/material/plt/mobilephonefilm/amazon/amazonkindleoasis2017/(myanmar-a4)/backfilm/amazonkindleoasis2017背膜1.7.plt</t>
   </si>
   <si>
     <t>https://static.vr186.com/public/upload/material/plt/mobilephonefilm/amazon/amazonkindleoasis2017front/(myanmar-a4)/backfilm/amazonkindleoasis2017前膜1.7.plt</t>
@@ -19864,7 +19861,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -20809,11 +20806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6616"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A6615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5983" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4105" workbookViewId="0">
+      <selection activeCell="A4127" sqref="A4127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -53896,11 +53893,6 @@
         <v>6611</v>
       </c>
     </row>
-    <row r="6616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6616" t="s">
-        <v>6612</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
